--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H2">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I2">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J2">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>2.02201114171025</v>
+        <v>4.538492586909</v>
       </c>
       <c r="R2">
-        <v>8.088044566840999</v>
+        <v>18.153970347636</v>
       </c>
       <c r="S2">
-        <v>0.001531207213045076</v>
+        <v>0.001563117980125876</v>
       </c>
       <c r="T2">
-        <v>0.0008452047330816191</v>
+        <v>0.0009195138522052863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H3">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I3">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J3">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>1.958052803402333</v>
+        <v>3.305198400299333</v>
       </c>
       <c r="R3">
-        <v>11.748316820414</v>
+        <v>19.831190401796</v>
       </c>
       <c r="S3">
-        <v>0.001482773519020707</v>
+        <v>0.001138354849866534</v>
       </c>
       <c r="T3">
-        <v>0.001227705028118389</v>
+        <v>0.00100446645725333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H4">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I4">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J4">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.01071059750516667</v>
+        <v>0.005326945177333333</v>
       </c>
       <c r="R4">
-        <v>0.06426358503099999</v>
+        <v>0.031961671064</v>
       </c>
       <c r="S4">
-        <v>8.110808005767112E-06</v>
+        <v>1.834671672672165E-06</v>
       </c>
       <c r="T4">
-        <v>6.715577020393298E-06</v>
+        <v>1.618885495579975E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H5">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I5">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J5">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>1.98203302494925</v>
+        <v>3.958666375399</v>
       </c>
       <c r="R5">
-        <v>7.928132099797</v>
+        <v>15.834665501596</v>
       </c>
       <c r="S5">
-        <v>0.001500933007584158</v>
+        <v>0.001363418022661184</v>
       </c>
       <c r="T5">
-        <v>0.0008284937996900717</v>
+        <v>0.0008020391129288536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H6">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I6">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J6">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>1.145896198454833</v>
+        <v>4.0577197E-05</v>
       </c>
       <c r="R6">
-        <v>6.875377190728999</v>
+        <v>0.000243463182</v>
       </c>
       <c r="S6">
-        <v>0.0008677521544173586</v>
+        <v>1.397533321895487E-08</v>
       </c>
       <c r="T6">
-        <v>0.0007184803811726814</v>
+        <v>1.233161474124192E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6496915</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H7">
-        <v>1.299383</v>
+        <v>2.993132</v>
       </c>
       <c r="I7">
-        <v>0.005425816501278846</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J7">
-        <v>0.003655611729725819</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.04627124519383333</v>
+        <v>4.128914848116001</v>
       </c>
       <c r="R7">
-        <v>0.277627471163</v>
+        <v>24.773489088696</v>
       </c>
       <c r="S7">
-        <v>3.50397992057789E-05</v>
+        <v>0.001422053889900565</v>
       </c>
       <c r="T7">
-        <v>2.901221064266439E-05</v>
+        <v>0.001254798038572252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J8">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>3.105138491427334</v>
+        <v>3.006919696272889</v>
       </c>
       <c r="R8">
-        <v>18.630830948564</v>
+        <v>27.062277266456</v>
       </c>
       <c r="S8">
-        <v>0.00235142643751998</v>
+        <v>0.001035623646405447</v>
       </c>
       <c r="T8">
-        <v>0.001946931222848115</v>
+        <v>0.001370727082958296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J9">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>3.006919696272889</v>
+        <v>0.004846213278222222</v>
       </c>
       <c r="R9">
-        <v>27.062277266456</v>
+        <v>0.043615919504</v>
       </c>
       <c r="S9">
-        <v>0.002277048347065999</v>
+        <v>1.669101131191472E-06</v>
       </c>
       <c r="T9">
-        <v>0.002828021611966641</v>
+        <v>2.209182971691988E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J10">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.01644792548044444</v>
+        <v>3.601415241542667</v>
       </c>
       <c r="R10">
-        <v>0.148031329324</v>
+        <v>21.608491449256</v>
       </c>
       <c r="S10">
-        <v>1.24555110581549E-05</v>
+        <v>0.001240375920011962</v>
       </c>
       <c r="T10">
-        <v>1.546934851248926E-05</v>
+        <v>0.001094488248706308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J11">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>3.043745363264667</v>
+        <v>3.691529466666667E-05</v>
       </c>
       <c r="R11">
-        <v>18.262472179588</v>
+        <v>0.000332237652</v>
       </c>
       <c r="S11">
-        <v>0.002304935298705302</v>
+        <v>1.271412472977308E-08</v>
       </c>
       <c r="T11">
-        <v>0.001908437545861339</v>
+        <v>1.682811624058541E-08</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9977106666666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H12">
-        <v>2.993132</v>
+        <v>157.985356</v>
       </c>
       <c r="I12">
-        <v>0.008332254614231399</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J12">
-        <v>0.008420710789519103</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.763754333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N12">
-        <v>5.291263</v>
+        <v>8.276778</v>
       </c>
       <c r="O12">
-        <v>0.1599302435334539</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P12">
-        <v>0.1965417649063538</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q12">
-        <v>1.759716511746222</v>
+        <v>217.934953143828</v>
       </c>
       <c r="R12">
-        <v>15.837448605716</v>
+        <v>1307.609718862968</v>
       </c>
       <c r="S12">
-        <v>0.001332579509636773</v>
+        <v>0.07505973343211245</v>
       </c>
       <c r="T12">
-        <v>0.001655021360338061</v>
+        <v>0.06623153099560562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9977106666666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H13">
-        <v>2.993132</v>
+        <v>157.985356</v>
       </c>
       <c r="I13">
-        <v>0.008332254614231399</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J13">
-        <v>0.008420710789519103</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07122033333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N13">
-        <v>0.213661</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O13">
-        <v>0.006457977190625621</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P13">
-        <v>0.00793634904023037</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q13">
-        <v>0.07105728625022223</v>
+        <v>158.7131067654497</v>
       </c>
       <c r="R13">
-        <v>0.639515576252</v>
+        <v>1428.417960889048</v>
       </c>
       <c r="S13">
-        <v>5.380951024519146E-05</v>
+        <v>0.0546629318250524</v>
       </c>
       <c r="T13">
-        <v>6.682969999245745E-05</v>
+        <v>0.07235056996484215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H14">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I14">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J14">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.1122635</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N14">
-        <v>6.224527</v>
+        <v>0.014572</v>
       </c>
       <c r="O14">
-        <v>0.2822077032432218</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P14">
-        <v>0.2312074682901326</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q14">
-        <v>130.8910426776593</v>
+        <v>0.2557958452924444</v>
       </c>
       <c r="R14">
-        <v>785.346256065956</v>
+        <v>2.302162607632</v>
       </c>
       <c r="S14">
-        <v>0.09911978452379014</v>
+        <v>8.809953467180446E-05</v>
       </c>
       <c r="T14">
-        <v>0.08206907952216334</v>
+        <v>0.0001166064704970902</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H15">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I15">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J15">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.013819333333334</v>
+        <v>3.609679</v>
       </c>
       <c r="N15">
-        <v>9.041458</v>
+        <v>7.219358</v>
       </c>
       <c r="O15">
-        <v>0.2732811768830042</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P15">
-        <v>0.3358411994729184</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q15">
-        <v>126.7508213819582</v>
+        <v>190.0921406202413</v>
       </c>
       <c r="R15">
-        <v>1140.757392437624</v>
+        <v>1140.552843721448</v>
       </c>
       <c r="S15">
-        <v>0.09598452152705991</v>
+        <v>0.06547029375814942</v>
       </c>
       <c r="T15">
-        <v>0.1192097223770256</v>
+        <v>0.05776995989808756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H16">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I16">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J16">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01648566666666667</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N16">
-        <v>0.049457</v>
+        <v>0.000111</v>
       </c>
       <c r="O16">
-        <v>0.001494854830393808</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P16">
-        <v>0.001837059708990754</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q16">
-        <v>0.693330143555111</v>
+        <v>0.001948486057333333</v>
       </c>
       <c r="R16">
-        <v>6.239971291996</v>
+        <v>0.017536374516</v>
       </c>
       <c r="S16">
-        <v>0.0005250377186028849</v>
+        <v>6.710848441236819E-07</v>
       </c>
       <c r="T16">
-        <v>0.0006520801445519689</v>
+        <v>8.882321043904069E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.05654266666667</v>
+        <v>3.794489</v>
       </c>
       <c r="H17">
-        <v>126.169628</v>
+        <v>7.588978</v>
       </c>
       <c r="I17">
-        <v>0.3512299040198892</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J17">
-        <v>0.354958601160661</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0507295</v>
+        <v>4.138389</v>
       </c>
       <c r="N17">
-        <v>6.101459</v>
+        <v>8.276778</v>
       </c>
       <c r="O17">
-        <v>0.2766280443193008</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P17">
-        <v>0.226636158581374</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q17">
-        <v>128.3031353812087</v>
+        <v>15.703071538221</v>
       </c>
       <c r="R17">
-        <v>769.8188122872521</v>
+        <v>62.812286152884</v>
       </c>
       <c r="S17">
-        <v>0.09716004145547766</v>
+        <v>0.005408349357096417</v>
       </c>
       <c r="T17">
-        <v>0.08044645382247026</v>
+        <v>0.003181495072441835</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.05654266666667</v>
+        <v>3.794489</v>
       </c>
       <c r="H18">
-        <v>126.169628</v>
+        <v>7.588978</v>
       </c>
       <c r="I18">
-        <v>0.3512299040198892</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J18">
-        <v>0.354958601160661</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.763754333333333</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N18">
-        <v>5.291263</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O18">
-        <v>0.1599302435334539</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P18">
-        <v>0.1965417649063538</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q18">
-        <v>74.17740937335155</v>
+        <v>11.43590430832066</v>
       </c>
       <c r="R18">
-        <v>667.596684360164</v>
+        <v>68.61542584992399</v>
       </c>
       <c r="S18">
-        <v>0.05617228408613252</v>
+        <v>0.003938679484658906</v>
       </c>
       <c r="T18">
-        <v>0.06976418994080684</v>
+        <v>0.003475428974256626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.05654266666667</v>
+        <v>3.794489</v>
       </c>
       <c r="H19">
-        <v>126.169628</v>
+        <v>7.588978</v>
       </c>
       <c r="I19">
-        <v>0.3512299040198892</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J19">
-        <v>0.354958601160661</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07122033333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N19">
-        <v>0.213661</v>
+        <v>0.014572</v>
       </c>
       <c r="O19">
-        <v>0.006457977190625621</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P19">
-        <v>0.00793634904023037</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q19">
-        <v>2.995280987567555</v>
+        <v>0.01843109790266667</v>
       </c>
       <c r="R19">
-        <v>26.957528888108</v>
+        <v>0.110586587416</v>
       </c>
       <c r="S19">
-        <v>0.00226823470882607</v>
+        <v>6.34791838334587E-06</v>
       </c>
       <c r="T19">
-        <v>0.002817075353642926</v>
+        <v>5.601303574364617E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H20">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I20">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J20">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1122635</v>
+        <v>3.609679</v>
       </c>
       <c r="N20">
-        <v>6.224527</v>
+        <v>7.219358</v>
       </c>
       <c r="O20">
-        <v>0.2822077032432218</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P20">
-        <v>0.2312074682901326</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q20">
-        <v>9.72207160385075</v>
+        <v>13.696887259031</v>
       </c>
       <c r="R20">
-        <v>38.888286415403</v>
+        <v>54.787549036124</v>
       </c>
       <c r="S20">
-        <v>0.00736222756565314</v>
+        <v>0.004717392468174074</v>
       </c>
       <c r="T20">
-        <v>0.004063845527568591</v>
+        <v>0.002775035394593589</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H21">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I21">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J21">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.013819333333334</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N21">
-        <v>9.041458</v>
+        <v>0.000111</v>
       </c>
       <c r="O21">
-        <v>0.2732811768830042</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P21">
-        <v>0.3358411994729184</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q21">
-        <v>9.414552257460334</v>
+        <v>0.000140396093</v>
       </c>
       <c r="R21">
-        <v>56.487313544762</v>
+        <v>0.000842376558</v>
       </c>
       <c r="S21">
-        <v>0.007129352567276207</v>
+        <v>4.83543055552698E-08</v>
       </c>
       <c r="T21">
-        <v>0.005902952731347983</v>
+        <v>4.266708047999399E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>180.09802</v>
+      </c>
+      <c r="H22">
+        <v>540.2940599999999</v>
+      </c>
+      <c r="I22">
+        <v>0.6678439142690207</v>
+      </c>
+      <c r="J22">
+        <v>0.6719061597109177</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.1237945</v>
-      </c>
-      <c r="H22">
-        <v>6.247589</v>
-      </c>
-      <c r="I22">
-        <v>0.026087975207778</v>
-      </c>
-      <c r="J22">
-        <v>0.01757661877283757</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01648566666666667</v>
+        <v>4.138389</v>
       </c>
       <c r="N22">
-        <v>0.049457</v>
+        <v>8.276778</v>
       </c>
       <c r="O22">
-        <v>0.001494854830393808</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P22">
-        <v>0.001837059708990754</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q22">
-        <v>0.05149783486216666</v>
+        <v>745.31566488978</v>
       </c>
       <c r="R22">
-        <v>0.308987009173</v>
+        <v>4471.89398933868</v>
       </c>
       <c r="S22">
-        <v>3.899773575454084E-05</v>
+        <v>0.2566967543406603</v>
       </c>
       <c r="T22">
-        <v>3.22892981678704E-05</v>
+        <v>0.2265051881240917</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.1237945</v>
+        <v>180.09802</v>
       </c>
       <c r="H23">
-        <v>6.247589</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I23">
-        <v>0.026087975207778</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J23">
-        <v>0.01757661877283757</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.0507295</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N23">
-        <v>6.101459</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O23">
-        <v>0.2766280443193008</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P23">
-        <v>0.226636158581374</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q23">
-        <v>9.529852033087749</v>
+        <v>542.7828945710532</v>
       </c>
       <c r="R23">
-        <v>38.119408132351</v>
+        <v>4885.046051139479</v>
       </c>
       <c r="S23">
-        <v>0.007216665561978032</v>
+        <v>0.1869417401398948</v>
       </c>
       <c r="T23">
-        <v>0.003983497359525171</v>
+        <v>0.2474316872104186</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.1237945</v>
+        <v>180.09802</v>
       </c>
       <c r="H24">
-        <v>6.247589</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I24">
-        <v>0.026087975207778</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J24">
-        <v>0.01757661877283757</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.763754333333333</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N24">
-        <v>5.291263</v>
+        <v>0.014572</v>
       </c>
       <c r="O24">
-        <v>0.1599302435334539</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P24">
-        <v>0.1965417649063538</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q24">
-        <v>5.509606085817833</v>
+        <v>0.8747961158133333</v>
       </c>
       <c r="R24">
-        <v>33.057636514907</v>
+        <v>7.873165042319999</v>
       </c>
       <c r="S24">
-        <v>0.004172256228274643</v>
+        <v>0.0003012915657318264</v>
       </c>
       <c r="T24">
-        <v>0.003454539674699646</v>
+        <v>0.0003987824249175542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.1237945</v>
+        <v>180.09802</v>
       </c>
       <c r="H25">
-        <v>6.247589</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I25">
-        <v>0.026087975207778</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J25">
-        <v>0.01757661877283757</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07122033333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N25">
-        <v>0.213661</v>
+        <v>7.219358</v>
       </c>
       <c r="O25">
-        <v>0.006457977190625621</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P25">
-        <v>0.00793634904023037</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q25">
-        <v>0.2224776855548333</v>
+        <v>650.0960407355799</v>
       </c>
       <c r="R25">
-        <v>1.334866113329</v>
+        <v>3900.576244413479</v>
       </c>
       <c r="S25">
-        <v>0.000168475548841437</v>
+        <v>0.2239018331799259</v>
       </c>
       <c r="T25">
-        <v>0.0001394941815283045</v>
+        <v>0.1975674642868477</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H26">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I26">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J26">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>3.1122635</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N26">
-        <v>6.224527</v>
+        <v>0.000111</v>
       </c>
       <c r="O26">
-        <v>0.2822077032432218</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P26">
-        <v>0.2312074682901326</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q26">
-        <v>2.1633001239515</v>
+        <v>0.006663626739999999</v>
       </c>
       <c r="R26">
-        <v>12.979800743709</v>
+        <v>0.05997264065999999</v>
       </c>
       <c r="S26">
-        <v>0.001638201039275239</v>
+        <v>2.295042807866643E-06</v>
       </c>
       <c r="T26">
-        <v>0.001356395718690262</v>
+        <v>3.037664642180107E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.695089</v>
+        <v>31.02214</v>
       </c>
       <c r="H27">
-        <v>2.085267</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I27">
-        <v>0.005804947988479781</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J27">
-        <v>0.005866573985353178</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.013819333333334</v>
+        <v>4.138389</v>
       </c>
       <c r="N27">
-        <v>9.041458</v>
+        <v>8.276778</v>
       </c>
       <c r="O27">
-        <v>0.2732811768830042</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P27">
-        <v>0.3358411994729184</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q27">
-        <v>2.094872666587333</v>
+        <v>128.38168293246</v>
       </c>
       <c r="R27">
-        <v>18.853853999286</v>
+        <v>770.2900975947599</v>
       </c>
       <c r="S27">
-        <v>0.001586383018036382</v>
+        <v>0.04421638089470151</v>
       </c>
       <c r="T27">
-        <v>0.00197023724403763</v>
+        <v>0.03901584068893101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.695089</v>
+        <v>31.02214</v>
       </c>
       <c r="H28">
-        <v>2.085267</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I28">
-        <v>0.005804947988479781</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J28">
-        <v>0.005866573985353178</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01648566666666667</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N28">
-        <v>0.049457</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O28">
-        <v>0.001494854830393808</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P28">
-        <v>0.001837059708990754</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q28">
-        <v>0.01145900555766667</v>
+        <v>93.49512529337331</v>
       </c>
       <c r="R28">
-        <v>0.103131050019</v>
+        <v>841.4561276403598</v>
       </c>
       <c r="S28">
-        <v>8.67755454076382E-06</v>
+        <v>0.03220098052418031</v>
       </c>
       <c r="T28">
-        <v>1.077724669830564E-05</v>
+        <v>0.04262045990887525</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.695089</v>
+        <v>31.02214</v>
       </c>
       <c r="H29">
-        <v>2.085267</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I29">
-        <v>0.005804947988479781</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J29">
-        <v>0.005866573985353178</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.0507295</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N29">
-        <v>6.101459</v>
+        <v>0.014572</v>
       </c>
       <c r="O29">
-        <v>0.2766280443193008</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P29">
-        <v>0.226636158581374</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q29">
-        <v>2.1205285174255</v>
+        <v>0.1506848746933333</v>
       </c>
       <c r="R29">
-        <v>12.723171104553</v>
+        <v>1.35616387224</v>
       </c>
       <c r="S29">
-        <v>0.001605811409428421</v>
+        <v>5.189790055966145E-05</v>
       </c>
       <c r="T29">
-        <v>0.001329577792073866</v>
+        <v>6.86908396623786E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.695089</v>
+        <v>31.02214</v>
       </c>
       <c r="H30">
-        <v>2.085267</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I30">
-        <v>0.005804947988479781</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J30">
-        <v>0.005866573985353178</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.763754333333333</v>
+        <v>3.609679</v>
       </c>
       <c r="N30">
-        <v>5.291263</v>
+        <v>7.219358</v>
       </c>
       <c r="O30">
-        <v>0.1599302435334539</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P30">
-        <v>0.1965417649063538</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q30">
-        <v>1.225966235802333</v>
+        <v>111.97996729306</v>
       </c>
       <c r="R30">
-        <v>11.033696122221</v>
+        <v>671.8798037583599</v>
       </c>
       <c r="S30">
-        <v>0.0009283867454966049</v>
+        <v>0.0385674090984693</v>
       </c>
       <c r="T30">
-        <v>0.001153026805035016</v>
+        <v>0.03403127661565401</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.695089</v>
+        <v>31.02214</v>
       </c>
       <c r="H31">
-        <v>2.085267</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I31">
-        <v>0.005804947988479781</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J31">
-        <v>0.005866573985353178</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07122033333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N31">
-        <v>0.213661</v>
+        <v>0.000111</v>
       </c>
       <c r="O31">
-        <v>0.006457977190625621</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P31">
-        <v>0.00793634904023037</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q31">
-        <v>0.04950447027633333</v>
+        <v>0.00114781918</v>
       </c>
       <c r="R31">
-        <v>0.445540232487</v>
+        <v>0.01033037262</v>
       </c>
       <c r="S31">
-        <v>3.748822170237051E-05</v>
+        <v>3.953243866402979E-07</v>
       </c>
       <c r="T31">
-        <v>4.655917881809815E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H32">
-        <v>216.653855</v>
-      </c>
-      <c r="I32">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J32">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.1122635</v>
-      </c>
-      <c r="N32">
-        <v>6.224527</v>
-      </c>
-      <c r="O32">
-        <v>0.2822077032432218</v>
-      </c>
-      <c r="P32">
-        <v>0.2312074682901326</v>
-      </c>
-      <c r="Q32">
-        <v>224.7612950169308</v>
-      </c>
-      <c r="R32">
-        <v>1348.567770101585</v>
-      </c>
-      <c r="S32">
-        <v>0.1702048564639382</v>
-      </c>
-      <c r="T32">
-        <v>0.1409260115657807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H33">
-        <v>216.653855</v>
-      </c>
-      <c r="I33">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J33">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.013819333333334</v>
-      </c>
-      <c r="N33">
-        <v>9.041458</v>
-      </c>
-      <c r="O33">
-        <v>0.2732811768830042</v>
-      </c>
-      <c r="P33">
-        <v>0.3358411994729184</v>
-      </c>
-      <c r="Q33">
-        <v>217.6518589467322</v>
-      </c>
-      <c r="R33">
-        <v>1958.86673052059</v>
-      </c>
-      <c r="S33">
-        <v>0.164821097904545</v>
-      </c>
-      <c r="T33">
-        <v>0.2047025604804221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H34">
-        <v>216.653855</v>
-      </c>
-      <c r="I34">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J34">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.01648566666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.049457</v>
-      </c>
-      <c r="O34">
-        <v>0.001494854830393808</v>
-      </c>
-      <c r="P34">
-        <v>0.001837059708990754</v>
-      </c>
-      <c r="Q34">
-        <v>1.190561078526111</v>
-      </c>
-      <c r="R34">
-        <v>10.715049706735</v>
-      </c>
-      <c r="S34">
-        <v>0.0009015755024316963</v>
-      </c>
-      <c r="T34">
-        <v>0.001119728094039726</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H35">
-        <v>216.653855</v>
-      </c>
-      <c r="I35">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J35">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.0507295</v>
-      </c>
-      <c r="N35">
-        <v>6.101459</v>
-      </c>
-      <c r="O35">
-        <v>0.2766280443193008</v>
-      </c>
-      <c r="P35">
-        <v>0.226636158581374</v>
-      </c>
-      <c r="Q35">
-        <v>220.3174355790742</v>
-      </c>
-      <c r="R35">
-        <v>1321.904613474445</v>
-      </c>
-      <c r="S35">
-        <v>0.1668396575861272</v>
-      </c>
-      <c r="T35">
-        <v>0.1381396982617533</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H36">
-        <v>216.653855</v>
-      </c>
-      <c r="I36">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J36">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N36">
-        <v>5.291263</v>
-      </c>
-      <c r="O36">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P36">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q36">
-        <v>127.3747251965405</v>
-      </c>
-      <c r="R36">
-        <v>1146.372526768865</v>
-      </c>
-      <c r="S36">
-        <v>0.09645698480949602</v>
-      </c>
-      <c r="T36">
-        <v>0.1197965067443016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>72.21795166666666</v>
-      </c>
-      <c r="H37">
-        <v>216.653855</v>
-      </c>
-      <c r="I37">
-        <v>0.6031191016683428</v>
-      </c>
-      <c r="J37">
-        <v>0.6095218835619034</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.213661</v>
-      </c>
-      <c r="O37">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P37">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q37">
-        <v>5.143386590350556</v>
-      </c>
-      <c r="R37">
-        <v>46.290479313155</v>
-      </c>
-      <c r="S37">
-        <v>0.003894929401804773</v>
-      </c>
-      <c r="T37">
-        <v>0.004837378415605919</v>
+        <v>5.232420534260242E-07</v>
       </c>
     </row>
   </sheetData>
